--- a/01_Input/00_CO Validation/Namibia - Energy Projects .xlsx
+++ b/01_Input/00_CO Validation/Namibia - Energy Projects .xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{71F3E7C9-D43C-4831-9432-0848AAEF6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97F10171-C68F-4F88-A8F6-5074897D0823}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{71F3E7C9-D43C-4831-9432-0848AAEF6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE6C5912-0D52-484A-9A51-283FB6F56EA0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
+    <sheet name="Projects (3)" sheetId="5" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="112">
   <si>
     <t>Project ID</t>
   </si>
@@ -78,9 +79,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>Tag</t>
@@ -155,6 +153,9 @@
     <t>Donor is GCF for the grant portion, Government for OPEX. Number of beneficiaries can only be determined once project sites are confirmed and population catchment can be determined by site. Total number of facilities allocated for the country is 317 HCF</t>
   </si>
   <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>Enhancing Namibia’s capacity to establish a comprehensive Transparency Framework for Measurement, Reporting and Verification (MRV) of climate actions and reporting on NDC implementation under the Paris Agreement</t>
   </si>
   <si>
@@ -167,43 +168,101 @@
     <t>All data providers are trained in the use of templates and tools for reporting relevant information for the GHG inventory and mitigation.</t>
   </si>
   <si>
+    <t>The UNDP Namibia country office in collaboration with the Namibian Government is providing capacity-building training for all data providers to record GHG emission reductions which also explains the the uptake of sustainable energy
+All data providers and participants in the MRV system shall be able to use/populate the MRV system. This indicator measure if all entities in the MRV are participating in the capacity building exercises organized under the project, especially for the GHG emission and mitigation components.
+Target from Annex 3: Monitoring Plan</t>
+  </si>
+  <si>
+    <t>Promotion of carbon markets in Namibia for an enhanced implementation of the nationally determined contributions (NDC) towards net-zero emissions and climate-resilient development, in response to the climate emergency.</t>
+  </si>
+  <si>
+    <t>https://sway.office.com/nRDTcZhPyGGgaC6k?ref=Link</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Lessons and Best Practice Report and Policy Paper</t>
+  </si>
+  <si>
+    <t>1 Lessons learnt and best practice report</t>
+  </si>
+  <si>
+    <t>Mapping best practises and lessons on what works in carbon trading and Clean Development Mechanisms from other developing countries and Japan through SSC. This will include pilot projects that sustainable energy such as the Manufacturing of Solar panels, the application of E vehickes, the application of energy efficient stoves.</t>
+  </si>
+  <si>
+    <t>Strengthening and building resilience of Namibia’s peri-urban communities to climate change through climate-smart agricultural production, access to solar technologies, climate information and early-warning system.</t>
+  </si>
+  <si>
+    <t>https://co.pims.undp.org/project/view?id=4711</t>
+  </si>
+  <si>
+    <t>Small Enterprises</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Number of people trained/educated/informed through technical transfers, dialogues, workshops, campaigns, and other efforts </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(disaggregated by: male, female, youth (15-24) and indigenous people)</t>
+    </r>
+  </si>
+  <si>
+    <t>Funded under the Climate promise JSB 2023/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan </t>
+  </si>
+  <si>
+    <t>Concept for implementation is generated alongside ILO</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Number of solar powered communal gardens. AND Number of HH beneficiaries with new access to green/sustainable energy (disaggregated by: male, female, youth (15-24) and indigenous people)</t>
+  </si>
+  <si>
+    <t>4000 HH</t>
+  </si>
+  <si>
+    <t>Funded under the Climate promise JSB 2023/2024
+Target from Prodoc PIMS 4711 pg. 54</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>All data providers and participants in the MRV system shall be able to use/populate the MRV system. This indicator measure if all entities in the MRV are participating in the capacity building exercises organized under the project, especially for the GHG emission and mitigation components.</t>
   </si>
   <si>
     <t>The UNDP Namibia country office in collaboration with the Namibian Government is providing capacity-building training for all data providers to record GHG emission reductions which also explains the the uptake of sustainable energy</t>
   </si>
   <si>
-    <t>Promotion of carbon markets in Namibia for an enhanced implementation of the nationally determined contributions (NDC) towards net-zero emissions and climate-resilient development, in response to the climate emergency.</t>
-  </si>
-  <si>
-    <t>https://sway.office.com/nRDTcZhPyGGgaC6k?ref=Link</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Lessons and Best Practice Report and Policy Paper</t>
-  </si>
-  <si>
-    <t>1 Lessons learnt and best practice report</t>
-  </si>
-  <si>
-    <t>Mapping best practises and lessons on what works in carbon trading and Clean Development Mechanisms from other developing countries and Japan through SSC. This will include pilot projects that sustainable energy such as the Manufacturing of Solar panels, the application of E vehickes, the application of energy efficient stoves.</t>
-  </si>
-  <si>
     <t>Concentrating Solar Power Technology Transfer for Electricity Generation in Namibia (CSP TT) NAM</t>
   </si>
   <si>
     <t>https://co.pims.undp.org/project/view?id=4334</t>
   </si>
   <si>
-    <t>Electricity Access</t>
+    <t>Energy (MW added)</t>
   </si>
   <si>
     <t>Cumulative direct postproject CO2 emission reduction resulting from the investment in CSP by endofproject EoP Mtonnes CO2 share of CSP in the power generation mix of Namibia by Eo</t>
-  </si>
-  <si>
-    <t>Namibia will have in place adequete base load energy to support industry development through construction of energy infrastructure and the production capacity would have expanded from 400 to more than 750 mega watts to demands</t>
   </si>
   <si>
     <r>
@@ -212,7 +271,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Financially Closed - 2018 
@@ -221,13 +279,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1. Promoting access to clean and affordable energy services
-2. Promoting low emission and climate resilient urban and transport infrastructure (CCM Program 3)</t>
+2. Promoting low emission and climate resilient urban and transport infrastructure (CCM Program 3)
+Namibia will have in place adequete base load energy to support industry development through construction of energy infrastructure and the production capacity would have expanded from 400 to more than 750 mega watts to demands</t>
     </r>
   </si>
   <si>
@@ -240,10 +298,10 @@
     <t>https://co.pims.undp.org/project/view?id=4110</t>
   </si>
   <si>
+    <t>GHG Emissions Reduction</t>
+  </si>
+  <si>
     <t>Indicators are e.g., tonnes of CO2 avoided, the adoption of energy efficiency standards and the estimated quantity of energy saved</t>
-  </si>
-  <si>
-    <t>CC-SPI Building EE</t>
   </si>
   <si>
     <r>
@@ -274,6 +332,9 @@
   </si>
   <si>
     <t>https://co.pims.undp.org/project/view?id=3062</t>
+  </si>
+  <si>
+    <t>tCO2</t>
   </si>
   <si>
     <r>
@@ -301,9 +362,6 @@
     </r>
   </si>
   <si>
-    <t>Strengthening and building resilience of Namibia’s peri-urban communities to climate change through climate-smart agricultural production, access to solar technologies, climate information and early-warning system.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Number of people trained/educated/informed through technical transfers, dialogues, workshops, campaigns, and other efforts </t>
     </r>
@@ -323,22 +381,7 @@
     <t>50 MSMEs</t>
   </si>
   <si>
-    <t>Funded under the Climate promise JSB 2023/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan </t>
-  </si>
-  <si>
-    <t>Concept for implementation is generated alongside ILO</t>
-  </si>
-  <si>
-    <t>Number of solar powered communal gardens. AND Number of HH beneficiaries with new access to green/sustainable energy (disaggregated by: male, female, youth (15-24) and indigenous people)</t>
-  </si>
-  <si>
     <t xml:space="preserve">10 communal solar powered gardens </t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t xml:space="preserve">The direct beneficiaries of the programme include 1) the inpatients and outpatients of the HCFs selected for the solar PV system interventions, who will benefit from improved access to health care services due to reliable electrification, 2) the population in the catchment area of the 12 selected HCFs which will operate as the sentinel surveillance sites for the implementation of the EWS for outbreaks of selected climate induced diseases, who will benefit from climate informed advisory; 3) government staff, HCF staff and technicians participating in the trainings and workshops of the programme. Government, HCF staff and technicians will benefit from capacity building and knowledge to implement activities related to low carbon and climate resilient health HCFs and climate informed advisory under this programme and beyond. </t>
@@ -394,6 +437,37 @@
     <t>AMP</t>
   </si>
   <si>
+    <t>Namibia will have in place adequete base load energy to support industry development through construction of energy infrastructure and the production capacity would have expanded from 400 to more than 750 mega watts to demands</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Financially Closed - 2018 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Promoting access to clean and affordable energy services
+2. Promoting low emission and climate resilient urban and transport infrastructure (CCM Program 3)</t>
+    </r>
+  </si>
+  <si>
+    <t>CC-SPI Building EE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energy Skills and Capacities </t>
   </si>
   <si>
@@ -412,9 +486,6 @@
     <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
   </si>
   <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
     <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
   </si>
   <si>
@@ -461,9 +532,6 @@
   </si>
   <si>
     <t>Support for the development of medium enterprises in the energy transition market</t>
-  </si>
-  <si>
-    <t>Small Enterprises</t>
   </si>
   <si>
     <t>Support for the development of small enterprises in the energy transition market</t>
@@ -506,12 +574,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,6 +733,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -764,44 +862,44 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -810,132 +908,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1241,12 +1348,348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A12A4B9-4E8F-40C1-98D9-F4A18FFD9E76}">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="D4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="109.140625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="16" customFormat="1" ht="45.75">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="409.6">
+      <c r="A2" s="15">
+        <v>6619</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="37">
+        <v>25000000</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22">
+        <v>175562</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+    </row>
+    <row r="3" spans="1:19" ht="167.45" customHeight="1">
+      <c r="A3" s="8">
+        <v>120120</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="42">
+        <v>1160000</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="44">
+        <v>200</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="4" spans="1:19" ht="117.6" customHeight="1">
+      <c r="A4" s="8">
+        <v>130635</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1003042</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+    </row>
+    <row r="5" spans="1:19" ht="67.5" customHeight="1">
+      <c r="A5" s="47">
+        <v>1000235</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="49">
+        <v>1030039</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0</v>
+      </c>
+      <c r="H5" s="51">
+        <v>50</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6" spans="1:19" ht="55.5">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="F7" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="F8" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="F9" s="29"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6" xr:uid="{7B5B3BA6-263F-4FFB-ACD9-4136C91A6330}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{57E6E72E-3A4F-4162-B985-D7D131A8AD8B}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6" xr:uid="{11F2FB1F-25F1-4FFC-B238-9F695F6A3BC3}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{8FB5CC34-E168-48A9-B6C4-BF67DD03A69E}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{FE5234F0-8182-4D56-99C5-653EE25910CE}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{526B2C23-84DE-4EEB-99FB-31FA43935433}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{37CE82D3-E32E-4CB3-B9D1-7972CD39B4CD}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{1C5106DF-3060-4B6B-A898-7917CCB01B68}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7B56EE94-361E-4D95-9185-2C1839FF1847}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:E6 E2:E4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC95F7C3-13BB-458E-8768-FC11D2A8ACF0}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="G4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1299,32 +1742,32 @@
       <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="P1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="Q1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="R1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="S1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="T1" s="34" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="409.6">
@@ -1332,17 +1775,17 @@
         <v>6619</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="37">
+        <v>25000000</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="42">
-        <v>25000000</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="10">
         <v>0</v>
@@ -1351,310 +1794,311 @@
         <v>175562</v>
       </c>
       <c r="I2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="K2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
     </row>
     <row r="3" spans="1:20" ht="167.45" customHeight="1">
       <c r="A3" s="8">
         <v>120120</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="42">
         <v>1160000</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="43" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="13">
         <v>0</v>
       </c>
-      <c r="H3" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>31</v>
+      <c r="H3" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>51</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20" ht="117.6" customHeight="1">
       <c r="A4" s="8">
         <v>130635</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="D4" s="42">
+        <v>1003042</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="47">
-        <v>1003042</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G4" s="13">
         <v>0</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="44" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>37</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-    </row>
-    <row r="5" spans="1:20" ht="167.25">
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+    </row>
+    <row r="5" spans="1:20" ht="91.5">
       <c r="A5" s="8">
         <v>85669</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="47">
+      <c r="B5" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="42">
         <v>2588000</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>43</v>
+        <v>400</v>
+      </c>
+      <c r="H5" s="44">
+        <v>750</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>56</v>
       </c>
       <c r="J5" s="13"/>
-      <c r="K5" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
+      <c r="K5" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:20" ht="60.75">
       <c r="A6" s="8">
         <v>75195</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="47">
+      <c r="B6" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="42">
         <v>6112000</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>40</v>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G6" s="13">
         <v>0</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>49</v>
+      <c r="H6" s="44">
+        <v>230157</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
     </row>
     <row r="7" spans="1:20" ht="45.75">
       <c r="A7" s="8">
         <v>45670</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="47">
+      <c r="B7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="42">
         <v>2834000</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="13"/>
+      <c r="E7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49" t="s">
-        <v>52</v>
+      <c r="H7" s="44">
+        <v>233670</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="J7" s="13"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
     </row>
     <row r="8" spans="1:20" ht="67.5" customHeight="1">
-      <c r="A8" s="53">
+      <c r="A8" s="47">
         <v>1000235</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="55">
+      <c r="B8" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="49">
         <v>1030039</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="43">
+      <c r="F8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="38">
         <v>0</v>
       </c>
-      <c r="H8" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
+      <c r="H8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
     </row>
     <row r="9" spans="1:20" ht="58.5">
-      <c r="A9" s="53">
+      <c r="A9" s="47">
         <v>1000235</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="55">
+      <c r="B9" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="49">
         <v>1030039</v>
       </c>
-      <c r="E9" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="43">
+      <c r="E9" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="38">
         <v>4</v>
       </c>
-      <c r="H9" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
+      <c r="H9" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
     </row>
     <row r="10" spans="1:20">
       <c r="F10" s="28" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="F11" s="28" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1665,24 +2109,27 @@
     <mergeCell ref="K5:K7"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P9" xr:uid="{939F268F-7590-455B-B796-20A660EDCF12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4 P8:P9 O5:O7" xr:uid="{939F268F-7590-455B-B796-20A660EDCF12}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q9" xr:uid="{263619EE-EDF9-48D0-802B-54DAEB6D3E10}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4 Q8:Q9 P5:P7" xr:uid="{263619EE-EDF9-48D0-802B-54DAEB6D3E10}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R9" xr:uid="{F1357F52-C91E-4493-AA86-CB581C7D1144}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4 R8:R9 Q5:Q7" xr:uid="{F1357F52-C91E-4493-AA86-CB581C7D1144}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S9" xr:uid="{AED8CEF3-207D-4CAB-AC25-C19EAD0F8B8C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4 S8:S9 R5:R7" xr:uid="{AED8CEF3-207D-4CAB-AC25-C19EAD0F8B8C}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T9" xr:uid="{D3D07C63-3E7A-47BE-AB56-38819B978118}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T4 T8:T9 S5:S7" xr:uid="{D3D07C63-3E7A-47BE-AB56-38819B978118}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{34B88366-83D0-4169-8F8A-31FDF7180D92}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{6E101C9D-759E-484E-8248-FA2614C8CE5C}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{EC1F0409-31DE-405A-A5A6-169E07C20CE2}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{27A0805B-1B49-4B0E-AE76-5CB3B0A23CC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1693,7 +2140,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E9</xm:sqref>
+          <xm:sqref>E2:E5 E8:E9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1701,12 +2148,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="F5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="I8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1760,32 +2207,32 @@
       <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="P1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="Q1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="R1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="S1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="T1" s="34" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="409.6">
@@ -1793,54 +2240,54 @@
         <v>6619</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12">
         <v>25000000</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="10">
         <v>0</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="39">
+      <c r="L2" s="35">
         <v>0.5</v>
       </c>
-      <c r="M2" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="M2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
     </row>
     <row r="3" spans="1:20" ht="167.45" customHeight="1">
       <c r="A3" s="16">
@@ -1865,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K3" s="21"/>
     </row>
@@ -1877,28 +2324,28 @@
         <v>130635</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="7">
         <v>1003042</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
       <c r="H4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="167.25">
@@ -1906,112 +2353,112 @@
         <v>85669</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
         <v>2588000</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="41"/>
+        <v>77</v>
+      </c>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:20" ht="60.75">
       <c r="A6" s="16">
         <v>75195</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7">
         <v>6112000</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:20" ht="45.75">
       <c r="A7" s="16">
         <v>45670</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7">
         <v>2834000</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="41"/>
+        <v>66</v>
+      </c>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:20" ht="67.5" customHeight="1">
       <c r="A8" s="27">
         <v>1000235</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D8" s="30">
         <v>1030039</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="60">
@@ -2019,38 +2466,38 @@
         <v>1000235</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D9" s="30">
         <v>1030039</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4">
         <v>4</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15">
       <c r="F10" s="28" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15">
       <c r="F11" s="28" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15">
@@ -2097,7 +2544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB874B5-6B34-417B-9E99-B209DC1AA263}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2109,7 +2556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2126,160 +2573,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="34" t="s">
-        <v>72</v>
+      <c r="A2" s="58" t="s">
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34"/>
+      <c r="A3" s="58"/>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="58"/>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="35" t="s">
-        <v>78</v>
+      <c r="A5" s="59" t="s">
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="59"/>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="59"/>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="59"/>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="59"/>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="36" t="s">
-        <v>88</v>
+      <c r="A10" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="60"/>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="37" t="s">
-        <v>93</v>
+      <c r="A12" s="61" t="s">
+        <v>102</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="61"/>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="61"/>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2294,12 +2741,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2552,18 +3001,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2571,5 +3018,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
--- a/01_Input/00_CO Validation/Namibia - Energy Projects .xlsx
+++ b/01_Input/00_CO Validation/Namibia - Energy Projects .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{71F3E7C9-D43C-4831-9432-0848AAEF6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE6C5912-0D52-484A-9A51-283FB6F56EA0}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{71F3E7C9-D43C-4831-9432-0848AAEF6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A2FF94-DC22-4952-A4BB-2BFE248E2580}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,7 @@
     <sheet name="Projects (3)" sheetId="5" r:id="rId1"/>
     <sheet name="Projects (2)" sheetId="4" r:id="rId2"/>
     <sheet name="Projects" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId5"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="129">
   <si>
     <t>Project ID</t>
   </si>
@@ -78,7 +77,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -97,6 +96,15 @@
   </si>
   <si>
     <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t xml:space="preserve">Solar for Health </t>
@@ -153,6 +161,9 @@
     <t>Donor is GCF for the grant portion, Government for OPEX. Number of beneficiaries can only be determined once project sites are confirmed and population catchment can be determined by site. Total number of facilities allocated for the country is 317 HCF</t>
   </si>
   <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
     <t>h</t>
   </si>
   <si>
@@ -179,9 +190,6 @@
     <t>https://sway.office.com/nRDTcZhPyGGgaC6k?ref=Link</t>
   </si>
   <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
     <t>Lessons and Best Practice Report and Policy Paper</t>
   </si>
   <si>
@@ -189,6 +197,24 @@
   </si>
   <si>
     <t>Mapping best practises and lessons on what works in carbon trading and Clean Development Mechanisms from other developing countries and Japan through SSC. This will include pilot projects that sustainable energy such as the Manufacturing of Solar panels, the application of E vehickes, the application of energy efficient stoves.</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Carbon Pricing and Monitoring</t>
+  </si>
+  <si>
+    <t>Decarbonization</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
   </si>
   <si>
     <t>Strengthening and building resilience of Namibia’s peri-urban communities to climate change through climate-smart agricultural production, access to solar technologies, climate information and early-warning system.</t>
@@ -228,6 +254,9 @@
     <t>Concept for implementation is generated alongside ILO</t>
   </si>
   <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
     <t>Electricity Access</t>
   </si>
   <si>
@@ -241,7 +270,13 @@
 Target from Prodoc PIMS 4711 pg. 54</t>
   </si>
   <si>
+    <t>Solar</t>
+  </si>
+  <si>
     <t> </t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
   <si>
     <t>Comments</t>
@@ -431,9 +466,6 @@
     <t>j</t>
   </si>
   <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
     <t>AMP</t>
   </si>
   <si>
@@ -474,49 +506,61 @@
     <t>Electricity for productivity</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
-  </si>
-  <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -525,7 +569,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -537,10 +584,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -549,16 +596,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -758,7 +808,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,68 +817,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -859,62 +858,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -923,16 +950,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -956,92 +983,114 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1349,316 +1398,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A12A4B9-4E8F-40C1-98D9-F4A18FFD9E76}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD7"/>
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="109.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="15.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="109.140625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="16" customFormat="1" ht="45.75">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:31" s="13" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="60" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="409.6">
-      <c r="A2" s="15">
+      <c r="T1" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="409.6">
+      <c r="A2" s="12">
         <v>6619</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="37">
+      <c r="B2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="34">
         <v>25000000</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19">
+        <v>175562</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="64"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+    </row>
+    <row r="3" spans="1:31" ht="167.45" customHeight="1">
+      <c r="A3" s="5">
+        <v>120120</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="39">
+        <v>1160000</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
+        <v>200</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="62"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="64"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+    </row>
+    <row r="4" spans="1:31" ht="117.6" customHeight="1">
+      <c r="A4" s="5">
+        <v>130635</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1003042</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="F4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="10">
         <v>0</v>
       </c>
-      <c r="H2" s="22">
-        <v>175562</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-    </row>
-    <row r="3" spans="1:19" ht="167.45" customHeight="1">
-      <c r="A3" s="8">
-        <v>120120</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="42">
-        <v>1160000</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="H4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="P4" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="64"/>
+      <c r="U4" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="64"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+    </row>
+    <row r="5" spans="1:31" ht="67.5" customHeight="1">
+      <c r="A5" s="44">
+        <v>1000235</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="46">
+        <v>1030039</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="35">
         <v>0</v>
       </c>
-      <c r="H3" s="44">
-        <v>200</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-    </row>
-    <row r="4" spans="1:19" ht="117.6" customHeight="1">
-      <c r="A4" s="8">
-        <v>130635</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="42">
-        <v>1003042</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="H5" s="48">
+        <v>50</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="64"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+    </row>
+    <row r="6" spans="1:31" ht="55.5">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="35">
         <v>0</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-    </row>
-    <row r="5" spans="1:19" ht="67.5" customHeight="1">
-      <c r="A5" s="47">
-        <v>1000235</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="49">
-        <v>1030039</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="38">
-        <v>0</v>
-      </c>
-      <c r="H5" s="51">
-        <v>50</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-    </row>
-    <row r="6" spans="1:19" ht="55.5">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="F7" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="F8" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="F9" s="29"/>
+      <c r="H6" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="53"/>
+      <c r="V6" s="64"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="F7" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="F8" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="F9" s="26"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6" xr:uid="{7B5B3BA6-263F-4FFB-ACD9-4136C91A6330}">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE6" xr:uid="{7B5B3BA6-263F-4FFB-ACD9-4136C91A6330}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{57E6E72E-3A4F-4162-B985-D7D131A8AD8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6 R2:R6" xr:uid="{57E6E72E-3A4F-4162-B985-D7D131A8AD8B}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6" xr:uid="{11F2FB1F-25F1-4FFC-B238-9F695F6A3BC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC6 Q2:Q6" xr:uid="{11F2FB1F-25F1-4FFC-B238-9F695F6A3BC3}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{8FB5CC34-E168-48A9-B6C4-BF67DD03A69E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA6" xr:uid="{8FB5CC34-E168-48A9-B6C4-BF67DD03A69E}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{FE5234F0-8182-4D56-99C5-653EE25910CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z6 O2:O6" xr:uid="{FE5234F0-8182-4D56-99C5-653EE25910CE}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB6" xr:uid="{8D8E1FF9-2E7B-45F7-AF64-7EE3D8B07D65}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{05D1CB21-5B38-4B57-839C-602179559DB5}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{555C7C7E-6EA8-4D96-BCAB-266494F7F403}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6" xr:uid="{24BF4D61-28D8-460F-BC05-9295B716EE3D}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U6" xr:uid="{01FAE71F-EFE8-4390-8C3E-01130B148EE2}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6" xr:uid="{07D3F715-5C15-46DE-8DB7-011A9E4A5E20}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6" xr:uid="{9C4A74DB-1B75-4E88-AACB-0A550648B66E}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1673,9 +1841,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7B56EE94-361E-4D95-9185-2C1839FF1847}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E6 E2:E4</xm:sqref>
+          <xm:sqref>E2:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1694,415 +1862,415 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="109.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="15.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="109.140625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" ht="45.75">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:20" s="13" customFormat="1" ht="45.75">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="34" t="s">
+      <c r="M1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="409.6">
-      <c r="A2" s="15">
+      <c r="A2" s="12">
         <v>6619</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="37">
+      <c r="B2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="34">
         <v>25000000</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19">
+        <v>175562</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+    </row>
+    <row r="3" spans="1:20" ht="167.45" customHeight="1">
+      <c r="A3" s="5">
+        <v>120120</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="39">
+        <v>1160000</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+    </row>
+    <row r="4" spans="1:20" ht="117.6" customHeight="1">
+      <c r="A4" s="5">
+        <v>130635</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1003042</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="F4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="10">
         <v>0</v>
       </c>
-      <c r="H2" s="22">
-        <v>175562</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-    </row>
-    <row r="3" spans="1:20" ht="167.45" customHeight="1">
-      <c r="A3" s="8">
-        <v>120120</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="42">
-        <v>1160000</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="H4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+    </row>
+    <row r="5" spans="1:20" ht="91.5">
+      <c r="A5" s="5">
+        <v>85669</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="39">
+        <v>2588000</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="10">
+        <v>400</v>
+      </c>
+      <c r="H5" s="41">
+        <v>750</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+    </row>
+    <row r="6" spans="1:20" ht="60.75">
+      <c r="A6" s="5">
+        <v>75195</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="39">
+        <v>6112000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H6" s="41">
+        <v>230157</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+    </row>
+    <row r="7" spans="1:20" ht="45.75">
+      <c r="A7" s="5">
+        <v>45670</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2834000</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="41">
+        <v>233670</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+    </row>
+    <row r="8" spans="1:20" ht="67.5" customHeight="1">
+      <c r="A8" s="44">
+        <v>1000235</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="46">
+        <v>1030039</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="J8" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-    </row>
-    <row r="4" spans="1:20" ht="117.6" customHeight="1">
-      <c r="A4" s="8">
-        <v>130635</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="42">
-        <v>1003042</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-    </row>
-    <row r="5" spans="1:20" ht="91.5">
-      <c r="A5" s="8">
-        <v>85669</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="K8" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="42">
-        <v>2588000</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="L8" s="32"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+    </row>
+    <row r="9" spans="1:20" ht="58.5">
+      <c r="A9" s="44">
+        <v>1000235</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="46">
+        <v>1030039</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F9" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="13">
-        <v>400</v>
-      </c>
-      <c r="H5" s="44">
-        <v>750</v>
-      </c>
-      <c r="I5" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-    </row>
-    <row r="6" spans="1:20" ht="60.75">
-      <c r="A6" s="8">
-        <v>75195</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="41" t="s">
+      <c r="G9" s="35">
+        <v>4</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="F10" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="42">
-        <v>6112000</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="44">
-        <v>230157</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-    </row>
-    <row r="7" spans="1:20" ht="45.75">
-      <c r="A7" s="8">
-        <v>45670</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="42">
-        <v>2834000</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="44">
-        <v>233670</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-    </row>
-    <row r="8" spans="1:20" ht="67.5" customHeight="1">
-      <c r="A8" s="47">
-        <v>1000235</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="49">
-        <v>1030039</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="38">
-        <v>0</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-    </row>
-    <row r="9" spans="1:20" ht="58.5">
-      <c r="A9" s="47">
-        <v>1000235</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="49">
-        <v>1030039</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="38">
-        <v>4</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="F10" s="28" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="F11" s="28" t="s">
-        <v>48</v>
+      <c r="F11" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="F12" s="29"/>
+      <c r="F12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2138,7 +2306,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9668C197-3831-40CD-B993-C90310AF6B02}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E5 E8:E9</xm:sqref>
         </x14:dataValidation>
@@ -2159,349 +2327,349 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="109.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="15.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="109.140625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" ht="45.75">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:20" s="13" customFormat="1" ht="45.75">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="34" t="s">
+      <c r="M1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="409.6">
-      <c r="A2" s="15">
+      <c r="A2" s="12">
         <v>6619</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12">
+      <c r="B2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9">
         <v>25000000</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+    </row>
+    <row r="3" spans="1:20" ht="167.45" customHeight="1">
+      <c r="A3" s="13">
+        <v>120120</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1160000</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:20" ht="117.6" customHeight="1">
+      <c r="A4" s="13">
+        <v>130635</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1003042</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="167.25">
+      <c r="A5" s="13">
+        <v>85669</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2588000</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="1:20" ht="60.75">
+      <c r="A6" s="13">
+        <v>75195</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="C6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36" t="s">
+      <c r="D6" s="4">
+        <v>6112000</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="36" t="s">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="1:20" ht="45.75">
+      <c r="A7" s="13">
+        <v>45670</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-    </row>
-    <row r="3" spans="1:20" ht="167.45" customHeight="1">
-      <c r="A3" s="16">
-        <v>120120</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1160000</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2834000</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="1:20" ht="67.5" customHeight="1">
+      <c r="A8" s="24">
+        <v>1000235</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1030039</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:20" ht="117.6" customHeight="1">
-      <c r="A4" s="16">
-        <v>130635</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1003042</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="167.25">
-      <c r="A5" s="16">
-        <v>85669</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2588000</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="9" spans="1:20" ht="60">
+      <c r="A9" s="24">
+        <v>1000235</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1030039</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="57"/>
-    </row>
-    <row r="6" spans="1:20" ht="60.75">
-      <c r="A6" s="16">
-        <v>75195</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15">
+      <c r="F10" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="7">
-        <v>6112000</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="57"/>
-    </row>
-    <row r="7" spans="1:20" ht="45.75">
-      <c r="A7" s="16">
-        <v>45670</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2834000</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="57"/>
-    </row>
-    <row r="8" spans="1:20" ht="67.5" customHeight="1">
-      <c r="A8" s="27">
-        <v>1000235</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="30">
-        <v>1030039</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="60">
-      <c r="A9" s="27">
-        <v>1000235</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="30">
-        <v>1030039</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="4">
-        <v>4</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15">
-      <c r="F10" s="28" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="11" spans="1:20" ht="15">
-      <c r="F11" s="28" t="s">
-        <v>48</v>
+      <c r="F11" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15">
-      <c r="F12" s="29"/>
+      <c r="F12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2534,7 +2702,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E7</xm:sqref>
         </x14:dataValidation>
@@ -2545,197 +2713,194 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB874B5-6B34-417B-9E99-B209DC1AA263}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="96" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="58"/>
-      <c r="B3" t="s">
+      <c r="B1" s="54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="58"/>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="59"/>
-      <c r="B6" t="s">
+      <c r="B2" s="56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45.75">
+      <c r="A6" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75">
+      <c r="A8" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.75">
+      <c r="A9" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="59"/>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="59"/>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="59"/>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="60"/>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="61"/>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="61"/>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
+      <c r="B21" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/01_Input/00_CO Validation/Namibia - Energy Projects .xlsx
+++ b/01_Input/00_CO Validation/Namibia - Energy Projects .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{71F3E7C9-D43C-4831-9432-0848AAEF6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A2FF94-DC22-4952-A4BB-2BFE248E2580}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{71F3E7C9-D43C-4831-9432-0848AAEF6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B41EAC18-54B9-45FA-B15F-9D82062624CB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
     <t>https://co.pims.undp.org/project/view?id=6337</t>
   </si>
   <si>
-    <t>Capacity Training</t>
+    <t>Capacity Building Training</t>
   </si>
   <si>
     <t>All data providers are trained in the use of templates and tools for reporting relevant information for the GHG inventory and mitigation.</t>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
   </si>
   <si>
     <t>All data providers and participants in the MRV system shall be able to use/populate the MRV system. This indicator measure if all entities in the MRV are participating in the capacity building exercises organized under the project, especially for the GHG emission and mitigation components.</t>
@@ -582,9 +585,6 @@
   </si>
   <si>
     <t>Support for the development of small enterprises in the energy transition market</t>
-  </si>
-  <si>
-    <t>Capacity Building Training</t>
   </si>
   <si>
     <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
@@ -1402,7 +1402,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1994,7 +1994,7 @@
         <v>1160000</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>33</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="42"/>
@@ -2065,19 +2065,19 @@
         <v>85669</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="39">
         <v>2588000</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" s="10">
         <v>400</v>
@@ -2086,11 +2086,11 @@
         <v>750</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="33"/>
@@ -2106,19 +2106,19 @@
         <v>75195</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="39">
         <v>6112000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>230157</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="65"/>
@@ -2145,26 +2145,26 @@
         <v>45670</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="39">
         <v>2834000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="41">
         <v>233670</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="65"/>
@@ -2189,16 +2189,16 @@
         <v>1030039</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="35">
         <v>0</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="48" t="s">
         <v>50</v>
@@ -2240,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>50</v>
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>26</v>
@@ -2439,11 +2439,11 @@
         <v>0.5</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" s="33"/>
       <c r="O2" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P2" s="33" t="s">
         <v>28</v>
@@ -2452,7 +2452,7 @@
         <v>54</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
@@ -2471,7 +2471,7 @@
         <v>1160000</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3" s="18"/>
     </row>
@@ -2521,10 +2521,10 @@
         <v>85669</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="4">
         <v>2588000</v>
@@ -2533,16 +2533,16 @@
         <v>54</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" s="66"/>
     </row>
@@ -2551,10 +2551,10 @@
         <v>75195</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4">
         <v>6112000</v>
@@ -2563,16 +2563,16 @@
         <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" s="66"/>
     </row>
@@ -2581,10 +2581,10 @@
         <v>45670</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="4">
         <v>2834000</v>
@@ -2593,7 +2593,7 @@
         <v>54</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" s="66"/>
     </row>
@@ -2608,16 +2608,16 @@
         <v>1030039</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>50</v>
@@ -2640,7 +2640,7 @@
         <v>1030039</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>55</v>
@@ -2649,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>50</v>
@@ -2716,7 +2716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2737,39 +2737,39 @@
         <v>54</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45.75">
       <c r="A6" s="55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.75">
@@ -2777,71 +2777,71 @@
         <v>23</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.75">
       <c r="A8" s="55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30.75">
       <c r="A9" s="55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.75">
       <c r="A12" s="55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2849,12 +2849,12 @@
         <v>48</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="55" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="B17" s="56" t="s">
         <v>119</v>
@@ -2906,19 +2906,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2943,6 +2941,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3022,6 +3021,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3166,22 +3170,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C99796AF-9A81-4886-A3D1-0D2D24356A76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23011DF0-4EBD-470A-8223-A97EFC194942}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
--- a/01_Input/00_CO Validation/Namibia - Energy Projects .xlsx
+++ b/01_Input/00_CO Validation/Namibia - Energy Projects .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27504"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{71F3E7C9-D43C-4831-9432-0848AAEF6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B41EAC18-54B9-45FA-B15F-9D82062624CB}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="8_{71F3E7C9-D43C-4831-9432-0848AAEF6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7554273C-ECE7-441D-BDAF-482317FC4DA2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="129">
   <si>
     <t>Project ID</t>
   </si>
@@ -161,6 +161,9 @@
     <t>Donor is GCF for the grant portion, Government for OPEX. Number of beneficiaries can only be determined once project sites are confirmed and population catchment can be determined by site. Total number of facilities allocated for the country is 317 HCF</t>
   </si>
   <si>
+    <t>VF</t>
+  </si>
+  <si>
     <t>Accelerating just energy transition</t>
   </si>
   <si>
@@ -461,9 +464,6 @@
 Healthcare Facilities with climate informed health services: 12
 HCF: 317 </t>
     </r>
-  </si>
-  <si>
-    <t>VF</t>
   </si>
   <si>
     <t>j</t>
@@ -1401,8 +1401,8 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="I2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1532,10 +1532,12 @@
         <v>27</v>
       </c>
       <c r="L2" s="32"/>
-      <c r="M2" s="62"/>
+      <c r="M2" s="62" t="s">
+        <v>28</v>
+      </c>
       <c r="N2" s="53"/>
       <c r="O2" s="63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" s="53"/>
       <c r="Q2" s="53"/>
@@ -1546,7 +1548,7 @@
       <c r="V2" s="64"/>
       <c r="X2" s="33"/>
       <c r="Y2" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="33"/>
       <c r="AA2" s="33"/>
@@ -1560,19 +1562,19 @@
         <v>120120</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="39">
         <v>1160000</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -1581,7 +1583,7 @@
         <v>200</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="42"/>
@@ -1591,7 +1593,7 @@
       <c r="M3" s="62"/>
       <c r="N3" s="53"/>
       <c r="O3" s="63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P3" s="53"/>
       <c r="Q3" s="53"/>
@@ -1614,10 +1616,10 @@
         <v>130635</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="39">
         <v>1003042</v>
@@ -1626,16 +1628,16 @@
         <v>20</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -1643,31 +1645,31 @@
       <c r="M4" s="62"/>
       <c r="N4" s="53"/>
       <c r="O4" s="63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P4" s="53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="53"/>
       <c r="R4" s="53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S4" s="53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T4" s="64"/>
       <c r="U4" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V4" s="64"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
       <c r="AA4" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB4" s="53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC4" s="33"/>
       <c r="AD4" s="33"/>
@@ -1678,19 +1680,19 @@
         <v>1000235</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="46">
         <v>1030039</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="35">
         <v>0</v>
@@ -1699,19 +1701,19 @@
         <v>50</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="62"/>
       <c r="N5" s="53"/>
       <c r="O5" s="63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" s="53"/>
       <c r="Q5" s="53"/>
@@ -1735,36 +1737,36 @@
       <c r="C6" s="35"/>
       <c r="D6" s="46"/>
       <c r="E6" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="35">
         <v>0</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="32"/>
       <c r="M6" s="62"/>
       <c r="N6" s="53"/>
       <c r="O6" s="63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" s="53"/>
       <c r="Q6" s="53"/>
       <c r="R6" s="53"/>
       <c r="S6" s="53"/>
       <c r="T6" s="64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" s="53"/>
       <c r="V6" s="64"/>
@@ -1779,12 +1781,12 @@
     </row>
     <row r="7" spans="1:31">
       <c r="F7" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="F8" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1914,10 +1916,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O1" s="31" t="s">
         <v>13</v>
@@ -1985,28 +1987,28 @@
         <v>120120</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="39">
         <v>1160000</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="42"/>
@@ -2025,10 +2027,10 @@
         <v>130635</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="39">
         <v>1003042</v>
@@ -2037,16 +2039,16 @@
         <v>20</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -2065,19 +2067,19 @@
         <v>85669</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="39">
         <v>2588000</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" s="10">
         <v>400</v>
@@ -2086,11 +2088,11 @@
         <v>750</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="33"/>
@@ -2106,19 +2108,19 @@
         <v>75195</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="39">
         <v>6112000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -2127,7 +2129,7 @@
         <v>230157</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="65"/>
@@ -2145,26 +2147,26 @@
         <v>45670</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="39">
         <v>2834000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="41">
         <v>233670</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="65"/>
@@ -2182,32 +2184,32 @@
         <v>1000235</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="46">
         <v>1030039</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" s="35">
         <v>0</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="33"/>
@@ -2224,29 +2226,29 @@
         <v>1000235</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="46">
         <v>1030039</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="35">
         <v>4</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="32"/>
@@ -2261,12 +2263,12 @@
     </row>
     <row r="10" spans="1:20">
       <c r="F10" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="F11" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2379,10 +2381,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O1" s="31" t="s">
         <v>13</v>
@@ -2424,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>26</v>
@@ -2439,17 +2441,17 @@
         <v>0.5</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="N2" s="33"/>
       <c r="O2" s="33" t="s">
         <v>86</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R2" s="33" t="s">
         <v>87</v>
@@ -2462,28 +2464,28 @@
         <v>120120</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4">
         <v>1160000</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K3" s="18"/>
     </row>
@@ -2492,10 +2494,10 @@
         <v>130635</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4">
         <v>1003042</v>
@@ -2504,16 +2506,16 @@
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="167.25">
@@ -2521,19 +2523,19 @@
         <v>85669</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4">
         <v>2588000</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2551,19 +2553,19 @@
         <v>75195</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4">
         <v>6112000</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -2572,7 +2574,7 @@
         <v>90</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" s="66"/>
     </row>
@@ -2581,19 +2583,19 @@
         <v>45670</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4">
         <v>2834000</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" s="66"/>
     </row>
@@ -2602,7 +2604,7 @@
         <v>1000235</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="27">
         <v>1030039</v>
@@ -2611,22 +2613,22 @@
         <v>91</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="60">
@@ -2634,7 +2636,7 @@
         <v>1000235</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="27">
         <v>1030039</v>
@@ -2643,29 +2645,29 @@
         <v>92</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15">
       <c r="F10" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15">
       <c r="F11" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15">
@@ -2734,7 +2736,7 @@
     </row>
     <row r="2" spans="1:2" ht="30.75">
       <c r="A2" s="55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>93</v>
@@ -2742,7 +2744,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>94</v>
@@ -2846,7 +2848,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="57" t="s">
         <v>118</v>
@@ -2854,7 +2856,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="56" t="s">
         <v>119</v>
@@ -2906,12 +2908,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3170,18 +3174,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3189,5 +3191,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>